--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>11.46167128986627</v>
+        <v>11.43986483888852</v>
       </c>
       <c r="G2" t="n">
-        <v>11.07276184375929</v>
+        <v>11.06689720615159</v>
       </c>
       <c r="H2" t="n">
-        <v>11.89961005416542</v>
+        <v>11.82967442350957</v>
       </c>
       <c r="I2" t="n">
-        <v>1.959360021495161</v>
+        <v>1.959362889200075</v>
       </c>
       <c r="J2" t="n">
-        <v>1.933809072691961</v>
+        <v>1.933169988130725</v>
       </c>
       <c r="K2" t="n">
-        <v>1.984912074927107</v>
+        <v>1.984673215894531</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1523266501890586</v>
+        <v>0.1523228311846385</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1503539576875566</v>
+        <v>0.1502978599400667</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1543251793833269</v>
+        <v>0.1542958738628188</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09462321498635723</v>
+        <v>0.09968007603381999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01617293221197099</v>
+        <v>0.02915405872278833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1780435350220116</v>
+        <v>0.1811423969066214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08602397494353226</v>
+        <v>0.09062551516148228</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0147293930450596</v>
+        <v>0.02655197504282738</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1616165319962063</v>
+        <v>0.1643991811025323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1011532868592947</v>
+        <v>0.106583413174184</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0173673792967335</v>
+        <v>0.03130706309780824</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1899789252874976</v>
+        <v>0.1932860895925299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.53954491492234</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.09605126487438</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.0108168204162</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.049988404361557</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.959721963173552</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.149072396997063</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2589062443588225</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1816049230378749</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3475819634553487</v>
       </c>
     </row>
   </sheetData>
